--- a/biology/Médecine/Jean_Oury/Jean_Oury.xlsx
+++ b/biology/Médecine/Jean_Oury/Jean_Oury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Oury est un psychiatre et psychanalyste français né le 5 mars 1924 à Paris et mort le 15 mai 2014 à Cour-Cheverny[1],[2]. Figure de la psychothérapie institutionnelle, il est le fondateur de la clinique de La Borde qu'il a dirigée jusqu'à sa mort. Il a également été membre de l'École freudienne de Paris, fondée par Jacques Lacan.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Oury est un psychiatre et psychanalyste français né le 5 mars 1924 à Paris et mort le 15 mai 2014 à Cour-Cheverny,. Figure de la psychothérapie institutionnelle, il est le fondateur de la clinique de La Borde qu'il a dirigée jusqu'à sa mort. Il a également été membre de l'École freudienne de Paris, fondée par Jacques Lacan.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1947 : interne en psychiatrie à l'hôpital de Saint-Alban[3] où François Tosquelles avait mis en place la psychothérapie institutionnelle[4],[5].
-1949 : médecin-chef à la clinique de Saumery (Loir-et-Cher)[4].
-1953 : création de la clinique de Cour-Cheverny (Loir-et-Cher), dite clinique de La Borde qu'il a dirigée jusqu'à sa mort[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1947 : interne en psychiatrie à l'hôpital de Saint-Alban où François Tosquelles avait mis en place la psychothérapie institutionnelle,.
+1949 : médecin-chef à la clinique de Saumery (Loir-et-Cher).
+1953 : création de la clinique de Cour-Cheverny (Loir-et-Cher), dite clinique de La Borde qu'il a dirigée jusqu'à sa mort.
 1956 : participe à la création de la clinique de La Chesnaie (à Chailles, Loir-et-Cher) par le docteur Jeangirard en y déléguant une partie de l'équipe soignante de La Borde pendant quelques mois.
 1957 : demande à Félix Guattari de prendre la direction administrative de la clinique de La Borde.
 1969 : établit la carte sanitaire et sociale du département avec l'aide de l'équipe de La Borde.
@@ -550,10 +564,12 @@
           <t>Un des piliers de la psychothérapie institutionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vie de Jean Oury tend à se confondre avec son œuvre, la clinique de La Borde[3],[6].
-Jean Oury attire de nombreux psychiatres français pour développer la démarche de la psychothérapie institutionnelle, notamment à travers le Groupe de travail de psychothérapie et de sociothérapie institutionnelles (GTPSI) qu'il forme avec Hélène Chaigneau, François Tosquelles, Horace Torrubia, Roger Gentis et Jean Ayme notamment ; le GTPSI se réunit à quatorze reprises entre 1960 et 1966[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vie de Jean Oury tend à se confondre avec son œuvre, la clinique de La Borde,.
+Jean Oury attire de nombreux psychiatres français pour développer la démarche de la psychothérapie institutionnelle, notamment à travers le Groupe de travail de psychothérapie et de sociothérapie institutionnelles (GTPSI) qu'il forme avec Hélène Chaigneau, François Tosquelles, Horace Torrubia, Roger Gentis et Jean Ayme notamment ; le GTPSI se réunit à quatorze reprises entre 1960 et 1966.
 Son frère, Fernand Oury, est le créateur du mouvement pédagogique de la pédagogie institutionnelle.
 </t>
         </is>
@@ -583,10 +599,12 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Soigner les malades sans soigner l’hôpital, c'est de la folie »[8].
-« J'ai toujours maintenu que la plus grande dignité que l'on peut avoir vis-à-vis de quelqu'un, c'est de faire un diagnostic »[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Soigner les malades sans soigner l’hôpital, c'est de la folie ».
+« J'ai toujours maintenu que la plus grande dignité que l'on peut avoir vis-à-vis de quelqu'un, c'est de faire un diagnostic ».</t>
         </is>
       </c>
     </row>
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ouvrages
-Il, donc, Union Générale d'Éditions, Paris, 1978.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il, donc, Union Générale d'Éditions, Paris, 1978.
 Onze heures du soir à La Borde, éd. Galilée, Paris, 1980.
 Pratique de l'institutionnel et politique, écrit avec Félix Guattari et François Tosquelles, éd. Matrice, Vigneux, 1985.
 Le collectif : le séminaire de Sainte-Anne, Champ social éditions, Nîmes, 1999.
@@ -635,9 +658,43 @@
 Dialogues à La Borde, Éditions Hermann, Paris, 2008.
 Préalables à toute clinique des psychoses : dialogue avec Patrick Faugeras, Érès, Toulouse, 2012.
 La Psychothérapie institutionnelle de Saint-Alban à La Borde, Paris, Éditions d'une, 2016.
-Les Symptômes primaires de la schizophrénie, cours de psychopathologie (Jussieu, 1984-1986), Paris, Éditions d'une, 2016.
-Filmographie
-Le Sous bois des insensés, une traversée avec Jean Oury, un film de Martine Deyres, sorti le 20 novembre 2016[10],[11].</t>
+Les Symptômes primaires de la schizophrénie, cours de psychopathologie (Jussieu, 1984-1986), Paris, Éditions d'une, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Oury</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Oury</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Sous bois des insensés, une traversée avec Jean Oury, un film de Martine Deyres, sorti le 20 novembre 2016,.</t>
         </is>
       </c>
     </row>
